--- a/Study 3/Shocks/GCAM/NDC_LTT - 2030.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2030.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.004679789041935591</v>
+        <v>0.004679789041935589</v>
       </c>
     </row>
     <row r="3">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.499428593004604</v>
+        <v>0.4994285930046038</v>
       </c>
     </row>
     <row r="7">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.07049752195780697</v>
+        <v>0.07049752195780695</v>
       </c>
     </row>
     <row r="11">
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.01942973618009789</v>
+        <v>0.0194297361800979</v>
       </c>
     </row>
     <row r="17">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.09427967820129239</v>
+        <v>0.09427967820129238</v>
       </c>
     </row>
     <row r="23">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.1062686945022506</v>
+        <v>0.1062686945022507</v>
       </c>
     </row>
     <row r="25">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0001924505434215668</v>
+        <v>0.0001924505434215667</v>
       </c>
     </row>
     <row r="27">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.08403048535634308</v>
+        <v>0.08403048535634307</v>
       </c>
     </row>
     <row r="35">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.06587046059375104</v>
+        <v>0.06587046059375103</v>
       </c>
     </row>
     <row r="39">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.08809571057723625</v>
+        <v>0.08809571057723627</v>
       </c>
     </row>
     <row r="41">
